--- a/Documentation/Population Data.xlsx
+++ b/Documentation/Population Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlbel\Desktop\IBMDESC-Poverty\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\IBMDESC-Poverty\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,7 +102,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -151,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
